--- a/houseData/高雄透天.xlsx
+++ b/houseData/高雄透天.xlsx
@@ -5,13 +5,11 @@
   <sheets>
     <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'工作表1'!$A$1:$AH$662</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miFjfa/sZjrA9U+jHmz30hKX4fatw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgQfqQz8O4i7o3/h2cgiSMOKB5Fxg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -72306,7 +72304,6 @@
     <row r="1607" ht="15.75" customHeight="1"/>
     <row r="1608" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$AH$662"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
